--- a/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_5_parsed_output/tokens_potential.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/random_5_parsed_output/tokens_potential.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C687"/>
+  <dimension ref="A1:C688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5598,7 +5598,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Leuphana University of Lueneburg</t>
+          <t>Section Ecosystem Functions</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -5613,12 +5613,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>research plots</t>
+          <t>Leuphana University of Lueneburg</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -5628,7 +5628,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BEF Experiment</t>
+          <t>research plots</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -5643,7 +5643,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Comparative Study Plots</t>
+          <t>BEF Experiment</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -5658,7 +5658,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Gutianshan Nature Reserve</t>
+          <t>Comparative Study Plots</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -5667,18 +5667,18 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>Gutianshan Nature Reserve</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5688,7 +5688,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Hemiptera_sum</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -5703,27 +5703,27 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>allometries</t>
+          <t>Hemiptera_sum</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>vector data file</t>
+          <t>allometries</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,7 +5733,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Habitat_OffshorePigeonPoint.zip</t>
+          <t>vector data file</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>multibeam echosounder</t>
+          <t>Habitat_OffshorePigeonPoint.zip</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -5763,12 +5763,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>bathymetry</t>
+          <t>multibeam echosounder</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -5778,7 +5778,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>backscatter data</t>
+          <t>bathymetry</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5793,7 +5793,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>habitat maps</t>
+          <t>backscatter data</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -5808,7 +5808,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>toxicokinetic properties</t>
+          <t>habitat maps</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -5823,22 +5823,22 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>vaginal microbiota</t>
+          <t>toxicokinetic properties</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>guinea pig</t>
+          <t>vaginal microbiota</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -5847,13 +5847,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>humans</t>
+          <t>guinea pig</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -5862,63 +5862,63 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>chlamydial infections</t>
+          <t>humans</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CSP19</t>
+          <t>chlamydial infections</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Number of individuals</t>
+          <t>CSP19</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Number of individuals</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>neighbour evaluation</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,12 +5943,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>neighbour indices</t>
+          <t>neighbour evaluation</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -5958,12 +5958,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Leaf</t>
+          <t>neighbour indices</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -5973,12 +5973,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Main Experimental sites</t>
+          <t>Leaf</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>secondary compound</t>
+          <t>Main Experimental sites</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,7 +6003,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>total phenolic</t>
+          <t>secondary compound</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6018,12 +6018,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>stomata</t>
+          <t>total phenolic</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6033,12 +6033,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>range contraction</t>
+          <t>stomata</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -6048,7 +6048,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>resource acquisition</t>
+          <t>range contraction</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6063,7 +6063,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>recruitment</t>
+          <t>resource acquisition</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>turnover</t>
+          <t>recruitment</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6093,7 +6093,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>succession</t>
+          <t>turnover</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>tropical forest</t>
+          <t>succession</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,12 +6123,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>forest biodiversity</t>
+          <t>tropical forest</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6138,12 +6138,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Habitat loss</t>
+          <t>forest biodiversity</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -6153,37 +6153,37 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>biodiversity</t>
+          <t>Habitat loss</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SLA</t>
+          <t>biodiversity</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Specific leaf area</t>
+          <t>SLA</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>LDMC</t>
+          <t>Specific leaf area</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6213,7 +6213,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>LDMC</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6228,12 +6228,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Kalium</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6243,7 +6243,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Magnesium</t>
+          <t>Kalium</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6258,7 +6258,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Calcium</t>
+          <t>Magnesium</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6273,7 +6273,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Aluminum</t>
+          <t>Calcium</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Ca2</t>
+          <t>Aluminum</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6303,7 +6303,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Manganese</t>
+          <t>Ca2</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Natrium</t>
+          <t>Manganese</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6333,7 +6333,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Phosphorus</t>
+          <t>Natrium</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Sulfur</t>
+          <t>Phosphorus</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6363,7 +6363,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Zinc</t>
+          <t>Sulfur</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Zinc</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6393,7 +6393,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6408,7 +6408,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Lead</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6423,7 +6423,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Strontium</t>
+          <t>Lead</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6438,7 +6438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>Strontium</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6453,7 +6453,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Nickel</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Cadmium</t>
+          <t>Nickel</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,28 +6477,28 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Cadmium content at 214nm</t>
+          <t>Cadmium</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Cadmium content at 228nm</t>
+          <t>Cadmium content at 214nm</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6513,7 +6513,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Stomatal density</t>
+          <t>Cadmium content at 228nm</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Stomatal length</t>
+          <t>Stomatal density</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6543,7 +6543,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Stomatal width</t>
+          <t>Stomatal length</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Phenolics</t>
+          <t>Stomatal width</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,7 +6573,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>genome assemblies</t>
+          <t>Phenolics</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6582,13 +6582,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>plasmid genome</t>
+          <t>genome assemblies</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>mitochondrial</t>
+          <t>plasmid genome</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,12 +6618,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>genomic sequence information</t>
+          <t>mitochondrial</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6633,12 +6633,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>HoloBee-Mop</t>
+          <t>genomic sequence information</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -6648,22 +6648,22 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>HoloBee-Mop</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>angle</t>
+          <t>direction</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6672,13 +6672,13 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Plant Collection Records</t>
+          <t>angle</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Tropical South America</t>
+          <t>Plant Collection Records</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>tropical ecosystems</t>
+          <t>Tropical South America</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>shift</t>
+          <t>tropical ecosystems</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,7 +6738,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>shift</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>hot spots</t>
+          <t>services</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>western Mediterranean shelves</t>
+          <t>hot spots</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,7 +6783,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Strait of Gibraltar</t>
+          <t>western Mediterranean shelves</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6798,7 +6798,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>western African coast</t>
+          <t>Strait of Gibraltar</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6813,7 +6813,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Adriatic</t>
+          <t>western African coast</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6828,12 +6828,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>density-dependence</t>
+          <t>Adriatic</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -6843,12 +6843,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>subplot</t>
+          <t>density-dependence</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6858,7 +6858,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>split-plots</t>
+          <t>subplot</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>density levels</t>
+          <t>split-plots</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>extinctions</t>
+          <t>density levels</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -6903,37 +6903,37 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>extinctions</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>biodiversity hotspots</t>
+          <t>world</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>pitfall traps</t>
+          <t>biodiversity hotspots</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>invertebrates</t>
+          <t>pitfall traps</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,7 +6963,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>herptiles</t>
+          <t>invertebrates</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6972,13 +6972,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Flora of China</t>
+          <t>herptiles</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6987,13 +6987,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Tetramorium.wroughtonii</t>
+          <t>Flora of China</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7002,43 +7002,43 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>Tetramorium.wroughtonii</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>production</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Porcupine Abyssal Plain</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7047,48 +7047,48 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Land and soil</t>
+          <t>Porcupine Abyssal Plain</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>indicators</t>
+          <t>Land and soil</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Waikato region</t>
+          <t>indicators</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>native vegetation</t>
+          <t>Waikato region</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,42 +7113,42 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>diversity</t>
+          <t>native vegetation</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>soil invertebrates</t>
+          <t>diversity</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>earthworm invasion</t>
+          <t>soil invertebrates</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,12 +7158,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>earthworm invasion</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7173,12 +7173,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>territory</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7188,12 +7188,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ecosystem services</t>
+          <t>territory</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7203,12 +7203,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>ecosystem services</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7218,12 +7218,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>red mould</t>
+          <t>object</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>red mould</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>response</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>snag</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>termites</t>
+          <t>snag</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Life expectancy</t>
+          <t>termites</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>vertebrate animals</t>
+          <t>Life expectancy</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>life expectancies</t>
+          <t>vertebrate animals</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>LÃƒÂ¼neburg</t>
+          <t>life expectancies</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Andreas Schuldt</t>
+          <t>LÃƒÂ¼neburg</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,7 +7368,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research</t>
+          <t>Andreas Schuldt</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>iDiv</t>
+          <t>German Centre for Integrative Biodiversity Research</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Michael Staab</t>
+          <t>iDiv</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>University of Freiburg</t>
+          <t>Michael Staab</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7428,7 +7428,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Chair of Nature Conservation and Landscape Ecology</t>
+          <t>University of Freiburg</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>land-use type</t>
+          <t>Chair of Nature Conservation and Landscape Ecology</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>soil biota</t>
+          <t>land-use type</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>baseline</t>
+          <t>soil biota</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>environmental changes</t>
+          <t>baseline</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>target groups</t>
+          <t>environmental changes</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,7 +7518,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Chlamydia caviae</t>
+          <t>target groups</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>infection</t>
+          <t>Chlamydia caviae</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,7 +7548,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>defense</t>
+          <t>infection</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>pathogens</t>
+          <t>defense</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,7 +7578,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Chlamydia trachomatis</t>
+          <t>pathogens</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>experiment</t>
+          <t>Chlamydia trachomatis</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>aboveground decomposer</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,7 +7623,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>herbivore communities</t>
+          <t>aboveground decomposer</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>trait variability</t>
+          <t>herbivore communities</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,7 +7653,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>grain size classes</t>
+          <t>trait variability</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>fine earth</t>
+          <t>grain size classes</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Decision-makers</t>
+          <t>fine earth</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>forest biodiversity</t>
+          <t>Decision-makers</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,22 +7713,22 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>CSPs</t>
+          <t>forest biodiversity</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>CWD</t>
+          <t>CSPs</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7737,18 +7737,18 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>wildlife trade</t>
+          <t>CWD</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,7 +7758,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>marine conservation</t>
+          <t>wildlife trade</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Eckelmann, W., Sponagel, H., Grottenthaler, W., Hartmann, J. K., Hartwich, R., Janetzko, P., ... &amp; Traidl, R.</t>
+          <t>marine conservation</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,7 +7788,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>amoebae</t>
+          <t>Eckelmann, W., Sponagel, H., Grottenthaler, W., Hartmann, J. K., Hartwich, R., Janetzko, P., ... &amp; Traidl, R.</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7803,7 +7803,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>intra-amoebal bacteria</t>
+          <t>amoebae</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>drinking water</t>
+          <t>intra-amoebal bacteria</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>FLA microbiome</t>
+          <t>drinking water</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,7 +7848,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Alticinae sp.1</t>
+          <t>FLA microbiome</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7857,33 +7857,33 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>trait variation</t>
+          <t>Alticinae sp.1</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>trade-off</t>
+          <t>trait variation</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,7 +7893,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>evolutionary constraints</t>
+          <t>trade-off</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7908,7 +7908,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>carbon allocation constraints</t>
+          <t>evolutionary constraints</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7923,7 +7923,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>carbon allocation constraints</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>mode of action</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>complexity</t>
+          <t>mode of action</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>phenomena</t>
+          <t>complexity</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,22 +7998,22 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>phenomena</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>planet</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8022,18 +8022,18 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>infrastructure</t>
+          <t>planet</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>lithology</t>
+          <t>infrastructure</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>USGS</t>
+          <t>lithology</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Surficial Materials</t>
+          <t>USGS</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Surficial Materials</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>internal structure</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>formation</t>
+          <t>internal structure</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>formation</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>The Directive</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,7 +8163,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Irish Law</t>
+          <t>The Directive</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>European Communities</t>
+          <t>Irish Law</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Health of Aquaculture Animals and Products Regulations 2008</t>
+          <t>European Communities</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Sierra Leonean national park</t>
+          <t>Health of Aquaculture Animals and Products Regulations 2008</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Shannon-Wiener biodiversity indices</t>
+          <t>Sierra Leonean national park</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Anja Fankhänel</t>
+          <t>Shannon-Wiener biodiversity indices</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,7 +8253,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Anja Fankhänel</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8268,7 +8268,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Goddert</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8283,12 +8283,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>fungal abundance</t>
+          <t>Goddert</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -8298,7 +8298,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>environmental parameters</t>
+          <t>fungal abundance</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Intermountain West</t>
+          <t>environmental parameters</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>branch sections</t>
+          <t>Intermountain West</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,7 +8343,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>branch sections</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Hemiptera</t>
+          <t>branches</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8373,27 +8373,27 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>foundation</t>
+          <t>Hemiptera</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>building material</t>
+          <t>foundation</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8403,27 +8403,27 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Levantine Basin</t>
+          <t>building material</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>sieves</t>
+          <t>Levantine Basin</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,7 +8433,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>KÃƒÂ¶hn pipette</t>
+          <t>sieves</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -8448,7 +8448,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>drying oven</t>
+          <t>KÃƒÂ¶hn pipette</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -8463,7 +8463,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>balance</t>
+          <t>drying oven</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>soil classification</t>
+          <t>balance</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8493,12 +8493,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>engineers</t>
+          <t>soil classification</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8508,7 +8508,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>geotechnical engineers</t>
+          <t>engineers</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -8523,7 +8523,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Ant</t>
+          <t>geotechnical engineers</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -8538,7 +8538,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Species_Tax</t>
+          <t>Ant</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -8547,33 +8547,33 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>N-fixation</t>
+          <t>Species_Tax</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>species origin</t>
+          <t>N-fixation</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,12 +8583,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>forest restoration</t>
+          <t>species origin</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -8598,7 +8598,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>community evolution models</t>
+          <t>forest restoration</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -8613,12 +8613,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>HoloBee-Barcode</t>
+          <t>community evolution models</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -8628,12 +8628,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>holobiont communities</t>
+          <t>HoloBee-Barcode</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,12 +8643,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>barcode sequences</t>
+          <t>holobiont communities</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8658,12 +8658,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>human population</t>
+          <t>barcode sequences</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8673,7 +8673,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>invasive species</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -8688,7 +8688,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>endangered species</t>
+          <t>invasive species</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -8703,12 +8703,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>marine hard bottom communities</t>
+          <t>endangered species</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -8718,7 +8718,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>new environments</t>
+          <t>marine hard bottom communities</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -8733,12 +8733,12 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>C. caviae</t>
+          <t>new environments</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -8748,12 +8748,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>C. caviae</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -8763,12 +8763,12 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>sexually transmitted infection</t>
+          <t>model</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -8778,12 +8778,12 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>community composition</t>
+          <t>sexually transmitted infection</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -8793,12 +8793,12 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>logged forest</t>
+          <t>community composition</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -8808,7 +8808,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>monocultures</t>
+          <t>logged forest</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -8817,33 +8817,33 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>juveniles</t>
+          <t>monocultures</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>juveniles</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -8853,7 +8853,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>away</t>
+          <t>home</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -8868,7 +8868,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>common garden experiment</t>
+          <t>away</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -8883,12 +8883,12 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>shadow treatment</t>
+          <t>common garden experiment</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -8898,12 +8898,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>splash cups</t>
+          <t>shadow treatment</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -8913,7 +8913,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>subtropics</t>
+          <t>splash cups</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -8928,37 +8928,37 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>CSP26</t>
+          <t>subtropics</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ecotones</t>
+          <t>CSP26</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ecotone</t>
+          <t>ecotones</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -8973,7 +8973,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Forest Ecology and Management</t>
+          <t>ecotone</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -8988,12 +8988,12 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Martin and Ek 1984</t>
+          <t>Forest Ecology and Management</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -9003,12 +9003,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Competition index</t>
+          <t>Martin and Ek 1984</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -9018,12 +9018,12 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Individual tree</t>
+          <t>Competition index</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -9033,12 +9033,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>monomethylarsonic acid</t>
+          <t>Individual tree</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -9048,7 +9048,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>MMAV</t>
+          <t>monomethylarsonic acid</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -9063,7 +9063,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>monomethylarsonous acid</t>
+          <t>MMAV</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -9078,7 +9078,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>MMAIII</t>
+          <t>monomethylarsonous acid</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -9093,12 +9093,12 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>broad-leaved forests</t>
+          <t>MMAIII</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -9108,12 +9108,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>leaf defence traits</t>
+          <t>broad-leaved forests</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -9123,12 +9123,12 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>data analysis</t>
+          <t>leaf defence traits</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -9138,7 +9138,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Main Experiment</t>
+          <t>data analysis</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -9153,12 +9153,12 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Site A &amp; B</t>
+          <t>Main Experiment</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -9168,22 +9168,22 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Samplecode</t>
+          <t>Site A &amp; B</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Samplecode</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -9192,48 +9192,48 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Sample.Collector</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>fallow types</t>
+          <t>Sample.Collector</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>fallow types</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -9243,12 +9243,12 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>taxa</t>
+          <t>management</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -9258,12 +9258,12 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>marine ecosystem</t>
+          <t>taxa</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -9273,22 +9273,22 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Fish Health Unit</t>
+          <t>marine ecosystem</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>finfish</t>
+          <t>Fish Health Unit</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -9303,27 +9303,27 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>finfish</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Fish Health regulations</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -9333,7 +9333,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Fish Health monitoring</t>
+          <t>Fish Health regulations</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -9348,7 +9348,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>trophobioses</t>
+          <t>Fish Health monitoring</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -9363,12 +9363,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>land conservation</t>
+          <t>trophobioses</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -9378,12 +9378,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>poverty alleviation</t>
+          <t>land conservation</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -9393,12 +9393,12 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>regions</t>
+          <t>poverty alleviation</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -9408,12 +9408,12 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>local residents</t>
+          <t>regions</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -9423,12 +9423,12 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>dbh</t>
+          <t>local residents</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -9438,7 +9438,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>slope inclination</t>
+          <t>dbh</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -9453,7 +9453,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>slope aspect</t>
+          <t>slope inclination</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -9468,7 +9468,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>physical defence trait</t>
+          <t>slope aspect</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -9483,12 +9483,12 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>phylogenetic non-independence</t>
+          <t>physical defence trait</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -9498,12 +9498,12 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>pitfall trap</t>
+          <t>phylogenetic non-independence</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -9513,22 +9513,22 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>BA14</t>
+          <t>pitfall trap</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>breastheight</t>
+          <t>BA14</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -9537,18 +9537,18 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Insect Herbivore Microbiome</t>
+          <t>breastheight</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -9558,12 +9558,12 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>cell walls</t>
+          <t>Insect Herbivore Microbiome</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -9573,7 +9573,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>positioning information</t>
+          <t>cell walls</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -9588,12 +9588,12 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>21st century</t>
+          <t>positioning information</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -9603,12 +9603,12 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>drying trend</t>
+          <t>21st century</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -9618,12 +9618,12 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Corsica Island</t>
+          <t>drying trend</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -9633,12 +9633,12 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>plant biodiversity</t>
+          <t>Corsica Island</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -9648,12 +9648,12 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Anthropocene</t>
+          <t>plant biodiversity</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -9663,12 +9663,12 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>human systems</t>
+          <t>Anthropocene</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -9678,7 +9678,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>landscape</t>
+          <t>human systems</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -9693,12 +9693,12 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>regional landscape scales</t>
+          <t>landscape</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -9708,12 +9708,12 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>age classifications</t>
+          <t>regional landscape scales</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -9723,12 +9723,12 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>city-of-ny_fuhs-xmg2</t>
+          <t>age classifications</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -9738,12 +9738,12 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Urban Park Ranger</t>
+          <t>city-of-ny_fuhs-xmg2</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -9753,12 +9753,12 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Animal Condition</t>
+          <t>Urban Park Ranger</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -9768,12 +9768,12 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>dataset</t>
+          <t>Animal Condition</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -9783,12 +9783,12 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>assistance</t>
+          <t>dataset</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -9798,7 +9798,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>relocation</t>
+          <t>assistance</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -9813,7 +9813,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>rescue</t>
+          <t>relocation</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -9828,7 +9828,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>antÃ¢â‚¬â€œhemipteran interactions</t>
+          <t>rescue</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -9843,37 +9843,37 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Tree or shrub</t>
+          <t>antÃ¢â‚¬â€œhemipteran interactions</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C628" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>site plot name</t>
+          <t>Tree or shrub</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>site plot name</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -9888,7 +9888,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>North</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -9903,12 +9903,12 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>fetidin/lysenins</t>
+          <t>west</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -9918,12 +9918,12 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>E. fetida</t>
+          <t>fetidin/lysenins</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -9933,7 +9933,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>compost microbiota</t>
+          <t>E. fetida</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -9948,12 +9948,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>regulation</t>
+          <t>compost microbiota</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -9963,7 +9963,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>gene expression</t>
+          <t>regulation</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -9978,12 +9978,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>gene expression</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -9993,12 +9993,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>carbon footprint</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -10008,7 +10008,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Pilot experiment</t>
+          <t>carbon footprint</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -10023,12 +10023,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>stratum stratum</t>
+          <t>Pilot experiment</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -10038,12 +10038,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>human populations</t>
+          <t>stratum stratum</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -10053,12 +10053,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>biodiversity change processes</t>
+          <t>human populations</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -10068,12 +10068,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>the Anthropocene</t>
+          <t>biodiversity change processes</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -10083,12 +10083,12 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BDE-209</t>
+          <t>the Anthropocene</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -10098,12 +10098,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>meta-analysis</t>
+          <t>BDE-209</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -10113,12 +10113,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>retention forestry</t>
+          <t>meta-analysis</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -10128,12 +10128,12 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>harvesting</t>
+          <t>retention forestry</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -10143,7 +10143,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>forest dynamics</t>
+          <t>harvesting</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -10158,7 +10158,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>biodiversity structure</t>
+          <t>forest dynamics</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -10173,7 +10173,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>annual mortality rate</t>
+          <t>biodiversity structure</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -10188,12 +10188,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>species abundance</t>
+          <t>annual mortality rate</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -10203,12 +10203,12 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>faction</t>
+          <t>species abundance</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -10218,7 +10218,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>faction</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -10233,7 +10233,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -10248,12 +10248,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>mutualistic ant–hemipteran interactions</t>
+          <t>group</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -10263,12 +10263,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Proceedings B</t>
+          <t>mutualistic ant–hemipteran interactions</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -10278,7 +10278,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Proceedings B</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -10293,12 +10293,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Institute of Ecology and Environmental Chemistry</t>
+          <t>German</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -10308,7 +10308,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Section Ecosystem Functions</t>
+          <t>Institute of Ecology and Environmental Chemistry</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -10323,7 +10323,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Leuphana University of Lueneburg</t>
+          <t>Section Ecosystem Functions</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -10338,12 +10338,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>Leuphana University of Lueneburg</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -10353,12 +10353,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>chemolithoautotrophic bacterial diversity</t>
+          <t>role</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -10368,12 +10368,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>biochemical carbon cycling</t>
+          <t>chemolithoautotrophic bacterial diversity</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -10383,12 +10383,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>barren saline soils</t>
+          <t>biochemical carbon cycling</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -10398,12 +10398,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>barren saline soils</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -10413,7 +10413,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -10428,12 +10428,12 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>community metrics</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -10443,12 +10443,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Crematogaster cf</t>
+          <t>community metrics</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -10458,12 +10458,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>adult genitalia</t>
+          <t>Crematogaster cf</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -10473,7 +10473,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>caterpillar ecology</t>
+          <t>adult genitalia</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -10488,7 +10488,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>ppm</t>
+          <t>caterpillar ecology</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -10503,12 +10503,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>DIR</t>
+          <t>ppm</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -10518,12 +10518,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>lithology classes</t>
+          <t>DIR</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -10533,7 +10533,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>lithologies</t>
+          <t>lithology classes</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -10548,12 +10548,12 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>vegetation types</t>
+          <t>lithologies</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -10563,12 +10563,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>biodiversity-ecosystem function relationships</t>
+          <t>vegetation types</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -10578,12 +10578,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>km2</t>
+          <t>biodiversity-ecosystem function relationships</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -10593,12 +10593,12 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>lower bathyal habitat</t>
+          <t>km2</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -10608,12 +10608,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>lower bathyal habitat</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -10623,12 +10623,12 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>North Atlantic</t>
+          <t>m</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -10638,12 +10638,12 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>fine soft sediment substrate</t>
+          <t>North Atlantic</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -10653,12 +10653,12 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>flat terraces</t>
+          <t>fine soft sediment substrate</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -10668,7 +10668,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>intervening slopes</t>
+          <t>flat terraces</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -10683,7 +10683,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ridge axis</t>
+          <t>intervening slopes</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -10698,12 +10698,12 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>habitat heterogeneity</t>
+          <t>ridge axis</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -10713,12 +10713,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>soil layers</t>
+          <t>habitat heterogeneity</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -10728,15 +10728,30 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
+          <t>soil layers</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>ENVIRONMENT</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
           <t>bioturbation</t>
         </is>
       </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>PHENOMENA</t>
-        </is>
-      </c>
-      <c r="C687" t="n">
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>PHENOMENA</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
         <v>1</v>
       </c>
     </row>
